--- a/Achieve/系统设计-180424.xlsx
+++ b/Achieve/系统设计-180424.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="687" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="687" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理模块" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="365">
   <si>
     <t>项目信息</t>
   </si>
@@ -1418,6 +1418,10 @@
   </si>
   <si>
     <t>cn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基本信息维护</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1985,6 +1989,44 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>338676</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>117371</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="984250" y="7594600"/>
+          <a:ext cx="8390476" cy="828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4904,10 +4946,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N37"/>
+  <dimension ref="C1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5298,6 +5340,11 @@
     <row r="37" spans="3:10">
       <c r="C37" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10">
+      <c r="C41" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5399,7 +5446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/Achieve/系统设计-180424.xlsx
+++ b/Achieve/系统设计-180424.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="687" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20390" windowHeight="7950" tabRatio="687" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="项目管理模块" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="365">
   <si>
     <t>项目信息</t>
   </si>
@@ -4948,7 +4948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:N41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B11" workbookViewId="0">
       <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
@@ -5446,8 +5446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5614,7 +5614,9 @@
       <c r="B12" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="37" t="s">
+        <v>252</v>
+      </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" t="s">
@@ -5632,7 +5634,7 @@
         <v>338</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>250</v>
@@ -5830,11 +5832,15 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="10"/>
+      <c r="A31" s="37" t="s">
+        <v>258</v>
+      </c>
       <c r="B31" s="36" t="s">
         <v>358</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="37" t="s">
+        <v>252</v>
+      </c>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="G31" t="s">
@@ -5842,14 +5848,11 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="37" t="s">
-        <v>258</v>
-      </c>
       <c r="B32" s="37" t="s">
         <v>345</v>
       </c>
       <c r="C32" s="37" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="D32" s="36" t="s">
         <v>250</v>

--- a/Achieve/系统设计-180424.xlsx
+++ b/Achieve/系统设计-180424.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="384">
   <si>
     <t>项目信息</t>
   </si>
@@ -1086,10 +1086,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>实际开始时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1423,6 +1419,86 @@
   <si>
     <t>项目基本信息维护</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目商务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>长码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">business </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1765,7 +1841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1880,6 +1956,24 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4070,7 +4164,7 @@
         <v>60</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="T32" s="11" t="s">
         <v>123</v>
@@ -4086,7 +4180,7 @@
         <v>120</v>
       </c>
       <c r="T33" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U33" s="11"/>
       <c r="V33" s="11"/>
@@ -4099,7 +4193,7 @@
         <v>120</v>
       </c>
       <c r="T34" s="37" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U34" s="11"/>
       <c r="V34" s="11"/>
@@ -4898,42 +4992,42 @@
     </row>
     <row r="41" spans="1:5">
       <c r="B41" s="69" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="B42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="B47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -4946,10 +5040,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:N41"/>
+  <dimension ref="C1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -4962,18 +5056,19 @@
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="9.75" customWidth="1"/>
     <col min="10" max="10" width="10.08203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" customWidth="1"/>
     <col min="16" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="12.25" customWidth="1"/>
     <col min="18" max="18" width="15.83203125" customWidth="1"/>
     <col min="19" max="19" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:10" ht="14.15" customHeight="1">
+    <row r="1" spans="3:16" ht="14.15" customHeight="1">
       <c r="C1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="3:10">
+    <row r="2" spans="3:16">
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
@@ -4982,8 +5077,21 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L2" s="70"/>
+      <c r="M2" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>369</v>
+      </c>
+      <c r="O2" s="72" t="s">
+        <v>368</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" ht="14.15" customHeight="1">
       <c r="C3" s="15" t="s">
         <v>176</v>
       </c>
@@ -5008,8 +5116,21 @@
       <c r="J3" s="54" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="3:10" s="57" customFormat="1" ht="31.5" customHeight="1">
+      <c r="L3" s="70"/>
+      <c r="M3" s="72">
+        <v>2</v>
+      </c>
+      <c r="N3" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="O3" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" s="57" customFormat="1" ht="31.5" customHeight="1">
       <c r="C4" s="55" t="s">
         <v>186</v>
       </c>
@@ -5024,8 +5145,21 @@
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
       <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L4" s="71"/>
+      <c r="M4" s="73">
+        <v>3</v>
+      </c>
+      <c r="N4" s="73" t="s">
+        <v>371</v>
+      </c>
+      <c r="O4" s="75" t="s">
+        <v>379</v>
+      </c>
+      <c r="P4" s="73" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" ht="14.15" customHeight="1">
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -5034,8 +5168,21 @@
       <c r="H5" s="54"/>
       <c r="I5" s="54"/>
       <c r="J5" s="54"/>
-    </row>
-    <row r="6" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L5" s="70"/>
+      <c r="M5" s="72">
+        <v>4</v>
+      </c>
+      <c r="N5" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="O5" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="P5" s="72" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" ht="14.15" customHeight="1">
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -5044,8 +5191,21 @@
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
-    </row>
-    <row r="7" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L6" s="70"/>
+      <c r="M6" s="73">
+        <v>5</v>
+      </c>
+      <c r="N6" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="O6" s="74" t="s">
+        <v>381</v>
+      </c>
+      <c r="P6" s="72" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" ht="14.15" customHeight="1">
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -5054,8 +5214,21 @@
       <c r="H7" s="54"/>
       <c r="I7" s="54"/>
       <c r="J7" s="54"/>
-    </row>
-    <row r="8" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L7" s="70"/>
+      <c r="M7" s="72">
+        <v>6</v>
+      </c>
+      <c r="N7" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="O7" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" ht="14.15" customHeight="1">
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -5064,8 +5237,13 @@
       <c r="H8" s="54"/>
       <c r="I8" s="54"/>
       <c r="J8" s="54"/>
-    </row>
-    <row r="9" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L8" s="70"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+    </row>
+    <row r="9" spans="3:16" ht="14.15" customHeight="1">
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -5074,8 +5252,13 @@
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
       <c r="J9" s="54"/>
-    </row>
-    <row r="10" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L9" s="70"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+    </row>
+    <row r="10" spans="3:16" ht="14.15" customHeight="1">
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
@@ -5084,16 +5267,21 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="13"/>
-    </row>
-    <row r="11" spans="3:10" ht="14.15" customHeight="1"/>
-    <row r="12" spans="3:10" ht="14.15" customHeight="1"/>
-    <row r="13" spans="3:10" ht="14.15" customHeight="1"/>
-    <row r="14" spans="3:10" ht="14.15" customHeight="1">
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+    </row>
+    <row r="11" spans="3:16" ht="14.15" customHeight="1"/>
+    <row r="12" spans="3:16" ht="14.15" customHeight="1"/>
+    <row r="13" spans="3:16" ht="14.15" customHeight="1"/>
+    <row r="14" spans="3:16" ht="14.15" customHeight="1">
       <c r="C14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="14.15" customHeight="1">
+    <row r="15" spans="3:16" ht="14.15" customHeight="1">
       <c r="C15" s="58" t="s">
         <v>191</v>
       </c>
@@ -5107,7 +5295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="3:10" ht="14.15" customHeight="1">
+    <row r="16" spans="3:16" ht="14.15" customHeight="1">
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="13"/>
@@ -5334,17 +5522,17 @@
     </row>
     <row r="36" spans="3:10">
       <c r="C36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="3:10">
       <c r="C37" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="3:10">
       <c r="C41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5446,8 +5634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5501,7 +5689,7 @@
         <v>251</v>
       </c>
       <c r="N4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5519,7 +5707,7 @@
         <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5537,7 +5725,7 @@
         <v>250</v>
       </c>
       <c r="N6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5555,7 +5743,7 @@
         <v>250</v>
       </c>
       <c r="N7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5575,15 +5763,15 @@
     </row>
     <row r="9" spans="1:14">
       <c r="N9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="67" t="s">
+        <v>314</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>315</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>316</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -5604,15 +5792,15 @@
         <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>252</v>
@@ -5620,18 +5808,18 @@
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="37" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>252</v>
@@ -5643,7 +5831,7 @@
         <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5651,7 +5839,7 @@
         <v>246</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C14" s="37" t="s">
         <v>252</v>
@@ -5661,61 +5849,61 @@
         <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="37"/>
       <c r="B15" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="11"/>
       <c r="E15" s="36"/>
       <c r="F15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="37"/>
       <c r="B16" s="37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="11"/>
       <c r="E16" s="36"/>
       <c r="F16" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="37"/>
       <c r="B17" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="11"/>
       <c r="E17" s="36"/>
       <c r="F17" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="37"/>
       <c r="B18" s="37" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="11"/>
       <c r="E18" s="36"/>
       <c r="F18" s="45" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="37"/>
       <c r="B19" s="37" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="11"/>
@@ -5725,7 +5913,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="37"/>
       <c r="B20" s="37" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="11"/>
@@ -5747,7 +5935,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="36"/>
       <c r="F22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5757,7 +5945,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="36"/>
       <c r="F23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5769,7 +5957,7 @@
         <v>250</v>
       </c>
       <c r="F24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5781,7 +5969,7 @@
         <v>250</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5799,7 +5987,7 @@
         <v>250</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5807,7 +5995,7 @@
         <v>267</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -5828,7 +6016,7 @@
         <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5836,7 +6024,7 @@
         <v>258</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>252</v>
@@ -5844,12 +6032,12 @@
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="G31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="37" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C32" s="37" t="s">
         <v>252</v>
@@ -5861,7 +6049,7 @@
         <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5879,23 +6067,23 @@
         <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="36"/>
       <c r="G34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5903,17 +6091,17 @@
         <v>270</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="36" t="s">
         <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5921,17 +6109,17 @@
         <v>271</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="36" t="s">
         <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5939,38 +6127,38 @@
         <v>272</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="36" t="s">
         <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="37" t="s">
-        <v>273</v>
+        <v>383</v>
       </c>
       <c r="B38" s="68" t="s">
+        <v>277</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>278</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>279</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="G38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="68" t="s">
         <v>256</v>
@@ -5981,15 +6169,15 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="G39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C40" s="37" t="s">
         <v>157</v>
@@ -5997,15 +6185,15 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="G40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C41" s="37" t="s">
         <v>157</v>
@@ -6013,47 +6201,47 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="G41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="G42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="68" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="68" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>287</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>288</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="G43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>290</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>291</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -6076,10 +6264,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="B49" s="37" t="s">
         <v>292</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>293</v>
       </c>
       <c r="C49" s="37" t="s">
         <v>157</v>
@@ -6093,10 +6281,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="B50" s="37" t="s">
         <v>296</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>297</v>
       </c>
       <c r="C50" s="37" t="s">
         <v>157</v>
@@ -6108,10 +6296,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B51" s="37" t="s">
         <v>294</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>295</v>
       </c>
       <c r="C51" s="37" t="s">
         <v>252</v>
@@ -6123,10 +6311,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="B52" s="37" t="s">
         <v>298</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>299</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>252</v>
@@ -6138,13 +6326,13 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="C53" s="37" t="s">
         <v>301</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>302</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="36"/>
@@ -6154,7 +6342,7 @@
         <v>181</v>
       </c>
       <c r="B54" s="68" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C54" s="37" t="s">
         <v>252</v>

--- a/Achieve/系统设计-180424.xlsx
+++ b/Achieve/系统设计-180424.xlsx
@@ -1270,42 +1270,227 @@
     <t>ProjectName</t>
   </si>
   <si>
+    <t>CREATE TABLE [tbProject] (</t>
+  </si>
+  <si>
+    <t>[ProjectID] [nvarchar]  (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[ProjectNo] [nvarchar]  (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[ProjectName] [nvarchar]  (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[ProjectManager] [nvarchar]  (50) NULL,</t>
+  </si>
+  <si>
+    <t>[UpdateBy] [nvarchar]  (50) NULL,</t>
+  </si>
+  <si>
+    <t>[AppendID] [nvarchar]  (50) NULL,</t>
+  </si>
+  <si>
+    <t>[AppendListID] [nvarchar]  (50) NULL,</t>
+  </si>
+  <si>
+    <t>[ProjectClerk] [nvarchar]  (50) NULL,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Remark] [nvarchar]  (255) NULL,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[UpdateTime] [datetime]  NULL,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CreateBy] [nvarchar]  (50) NULL,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateBy</t>
+  </si>
+  <si>
+    <t>[CreateTime] [datetime]  NULL)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateTime</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpdateBy</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ProjectID,ProjectNo,ProjectName,ProjectManager,ProjectClerk,CreateBy,CreateTime,UpdateTime,UpdateBy,Remark, order, pagesize, pageindex, strWhere.ToString(), </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbMgrNodeInfo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NodeName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE TABLE [tbMgrNodeInfo] (</t>
+  </si>
+  <si>
+    <t>[InfoID] [nvarchar]  (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[NodeID] [nvarchar]  (50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>[NodeName] [nvarchar]  (50) NULL,</t>
+  </si>
+  <si>
+    <t>[PSTime] [datetime]  NULL,</t>
+  </si>
+  <si>
+    <t>[PETime] [datetime]  NULL,</t>
+  </si>
+  <si>
+    <t>[RSTime] [datetime]  NULL,</t>
+  </si>
+  <si>
+    <t>[RETime] [datetime]  NULL,</t>
+  </si>
+  <si>
+    <t>[UpdateTime] [datetime]  NULL,</t>
+  </si>
+  <si>
+    <t>[Remark] [nvarchar]  (255) NULL,</t>
+  </si>
+  <si>
+    <t>[ProjectID] [nvarchar]  (50) NOT NULL)</t>
+  </si>
+  <si>
+    <t>InfoID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目基本信息维护</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目商务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>长码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>短码</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">business </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术方案</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>施工管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>me</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>technology</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>design</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>manufacture</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>construction</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结束时间</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>ProjectManager</t>
-  </si>
-  <si>
-    <t>CREATE TABLE [tbProject] (</t>
-  </si>
-  <si>
-    <t>[ProjectID] [nvarchar]  (50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[ProjectNo] [nvarchar]  (50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[ProjectName] [nvarchar]  (50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[ProjectManager] [nvarchar]  (50) NULL,</t>
-  </si>
-  <si>
-    <t>[UpdateBy] [nvarchar]  (50) NULL,</t>
-  </si>
-  <si>
-    <t>[AppendID] [nvarchar]  (50) NULL,</t>
-  </si>
-  <si>
-    <t>[AppendListID] [nvarchar]  (50) NULL,</t>
-  </si>
-  <si>
-    <t>[ProjectClerk] [nvarchar]  (50) NULL,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Remark] [nvarchar]  (255) NULL,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[UpdateTime] [datetime]  NULL,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1313,192 +1498,8 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>[CreateBy] [nvarchar]  (50) NULL,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateBy</t>
-  </si>
-  <si>
-    <t>[CreateTime] [datetime]  NULL)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateTime</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateTime</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpdateBy</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">ProjectID,ProjectNo,ProjectName,ProjectManager,ProjectClerk,CreateBy,CreateTime,UpdateTime,UpdateBy,Remark, order, pagesize, pageindex, strWhere.ToString(), </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbMgrNodeInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodeName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE TABLE [tbMgrNodeInfo] (</t>
-  </si>
-  <si>
-    <t>[InfoID] [nvarchar]  (50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[NodeID] [nvarchar]  (50) NOT NULL,</t>
-  </si>
-  <si>
-    <t>[NodeName] [nvarchar]  (50) NULL,</t>
-  </si>
-  <si>
-    <t>[PSTime] [datetime]  NULL,</t>
-  </si>
-  <si>
-    <t>[PETime] [datetime]  NULL,</t>
-  </si>
-  <si>
-    <t>[RSTime] [datetime]  NULL,</t>
-  </si>
-  <si>
-    <t>[RETime] [datetime]  NULL,</t>
-  </si>
-  <si>
-    <t>[UpdateTime] [datetime]  NULL,</t>
-  </si>
-  <si>
-    <t>[Remark] [nvarchar]  (255) NULL,</t>
-  </si>
-  <si>
-    <t>[ProjectID] [nvarchar]  (50) NOT NULL)</t>
-  </si>
-  <si>
-    <t>InfoID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目基本信息维护</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>bs</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目商务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>长码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>短码</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">business </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术方案</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计管理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产管理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>施工管理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>dn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>me</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>technology</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>design</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>manufacture</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>construction</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>实际结束时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5079,16 +5080,16 @@
       <c r="J2" s="13"/>
       <c r="L2" s="70"/>
       <c r="M2" s="72" t="s">
+        <v>362</v>
+      </c>
+      <c r="N2" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="O2" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="N2" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="O2" s="72" t="s">
-        <v>368</v>
-      </c>
       <c r="P2" s="72" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="3:16" ht="14.15" customHeight="1">
@@ -5121,13 +5122,13 @@
         <v>2</v>
       </c>
       <c r="N3" s="72" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O3" s="72" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="P3" s="72" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="3:16" s="57" customFormat="1" ht="31.5" customHeight="1">
@@ -5150,13 +5151,13 @@
         <v>3</v>
       </c>
       <c r="N4" s="73" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="O4" s="75" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P4" s="73" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="3:16" ht="14.15" customHeight="1">
@@ -5173,13 +5174,13 @@
         <v>4</v>
       </c>
       <c r="N5" s="72" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="O5" s="74" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P5" s="72" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="3:16" ht="14.15" customHeight="1">
@@ -5196,13 +5197,13 @@
         <v>5</v>
       </c>
       <c r="N6" s="72" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O6" s="74" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P6" s="72" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="3:16" ht="14.15" customHeight="1">
@@ -5219,13 +5220,13 @@
         <v>6</v>
       </c>
       <c r="N7" s="72" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O7" s="74" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P7" s="72" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="3:16" ht="14.15" customHeight="1">
@@ -5532,7 +5533,7 @@
     </row>
     <row r="41" spans="3:10">
       <c r="C41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5634,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -5689,7 +5690,7 @@
         <v>251</v>
       </c>
       <c r="N4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5707,7 +5708,7 @@
         <v>250</v>
       </c>
       <c r="N5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5725,7 +5726,7 @@
         <v>250</v>
       </c>
       <c r="N6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5743,7 +5744,7 @@
         <v>250</v>
       </c>
       <c r="N7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5763,7 +5764,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="N9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5792,7 +5793,7 @@
         <v>249</v>
       </c>
       <c r="F11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5800,7 +5801,7 @@
         <v>317</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C12" s="37" t="s">
         <v>252</v>
@@ -5808,10 +5809,10 @@
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
       <c r="F12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J12" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5819,7 +5820,7 @@
         <v>316</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C13" s="37" t="s">
         <v>252</v>
@@ -5831,7 +5832,7 @@
         <v>251</v>
       </c>
       <c r="F13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5849,61 +5850,61 @@
         <v>250</v>
       </c>
       <c r="F14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="37"/>
       <c r="B15" s="37" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="C15" s="37"/>
       <c r="D15" s="11"/>
       <c r="E15" s="36"/>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="37"/>
       <c r="B16" s="37" t="s">
-        <v>333</v>
+        <v>382</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="11"/>
       <c r="E16" s="36"/>
       <c r="F16" s="45" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="37"/>
       <c r="B17" s="37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="11"/>
       <c r="E17" s="36"/>
       <c r="F17" s="45" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="37"/>
       <c r="B18" s="37" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="11"/>
       <c r="E18" s="36"/>
       <c r="F18" s="45" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="37"/>
       <c r="B19" s="37" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="11"/>
@@ -5913,7 +5914,7 @@
     <row r="20" spans="1:7">
       <c r="A20" s="37"/>
       <c r="B20" s="37" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="11"/>
@@ -5935,7 +5936,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="36"/>
       <c r="F22" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5945,7 +5946,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="36"/>
       <c r="F23" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5957,7 +5958,7 @@
         <v>250</v>
       </c>
       <c r="F24" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5969,7 +5970,7 @@
         <v>250</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5987,7 +5988,7 @@
         <v>250</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5995,7 +5996,7 @@
         <v>267</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -6016,7 +6017,7 @@
         <v>249</v>
       </c>
       <c r="G30" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6024,7 +6025,7 @@
         <v>258</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C31" s="37" t="s">
         <v>252</v>
@@ -6032,12 +6033,12 @@
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="G31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="37" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C32" s="37" t="s">
         <v>252</v>
@@ -6049,7 +6050,7 @@
         <v>251</v>
       </c>
       <c r="G32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6067,7 +6068,7 @@
         <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6075,7 +6076,7 @@
         <v>288</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C34" s="37" t="s">
         <v>287</v>
@@ -6083,7 +6084,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="36"/>
       <c r="G34" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6101,7 +6102,7 @@
         <v>250</v>
       </c>
       <c r="G35" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6119,7 +6120,7 @@
         <v>250</v>
       </c>
       <c r="G36" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6137,12 +6138,12 @@
         <v>250</v>
       </c>
       <c r="G37" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="37" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B38" s="68" t="s">
         <v>277</v>
@@ -6153,7 +6154,7 @@
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="G38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6169,7 +6170,7 @@
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="G39" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6185,7 +6186,7 @@
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="G40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6201,7 +6202,7 @@
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="G41" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6217,7 +6218,7 @@
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="G42" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6233,7 +6234,7 @@
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="G43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47" spans="1:7">
